--- a/design/BadgeCheetSheet.xlsx
+++ b/design/BadgeCheetSheet.xlsx
@@ -414,7 +414,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="1"/>
+        <f>10*G11*POWER(3, G11)</f>
         <v>180</v>
       </c>
       <c r="I11" s="6">
